--- a/Progress_Tracking_sheet_9d.xlsx
+++ b/Progress_Tracking_sheet_9d.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifu\Documents\Verkefni\Þróun Hugbúnaðar git\hbv401G-9d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnar\Desktop\Skóldót\4. Misseri\Þróun hugbúnaðar\hop-9d\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C3175E-40C1-4A76-992D-FB647EA4C8FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>User Story ID</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>[9D -Arnar Pétursson  arp25@hi.is Freyr Saputra Daníelsson fsd1@hi.is Leifur Daníel Sigurðarson lsd2@hi.is ]</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -195,7 +202,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -473,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,6 +576,9 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -558,6 +599,9 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -578,6 +622,9 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -595,6 +642,9 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -612,6 +662,9 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -629,6 +682,9 @@
       <c r="E9" s="3">
         <v>3</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -646,6 +702,9 @@
       <c r="E10" s="3">
         <v>13</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -663,6 +722,9 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -680,6 +742,9 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -697,6 +762,9 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -714,6 +782,9 @@
       <c r="E14" s="3">
         <v>2</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -731,6 +802,9 @@
       <c r="E15" s="3">
         <v>2</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -748,8 +822,11 @@
       <c r="E16" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -765,8 +842,11 @@
       <c r="E17" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -782,8 +862,11 @@
       <c r="E18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -799,8 +882,11 @@
       <c r="E19" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -816,8 +902,14 @@
       <c r="E20" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -833,8 +925,11 @@
       <c r="E21" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -850,8 +945,11 @@
       <c r="E22" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -867,8 +965,11 @@
       <c r="E23" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E25" s="3" t="s">
         <v>29</v>
       </c>
@@ -877,6 +978,14 @@
   <sortState ref="A4:G23">
     <sortCondition ref="D4"/>
   </sortState>
+  <conditionalFormatting sqref="G4:G23">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Progress_Tracking_sheet_9d.xlsx
+++ b/Progress_Tracking_sheet_9d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnar\Desktop\Skóldót\4. Misseri\Þróun hugbúnaðar\hop-9d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C3175E-40C1-4A76-992D-FB647EA4C8FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7ECED-4539-4E10-B447-349609370570}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,30 +54,18 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>As a marketing manager, I want to reply to reviews in public or private, in order to address any mentioned concerns.</t>
-  </si>
-  <si>
     <t>As a website visitor it is crucial for me that the website is available in english.</t>
   </si>
   <si>
     <t xml:space="preserve">As a customer, I want to endorse reviews that i agree with, to make the review more reliable. </t>
   </si>
   <si>
-    <t>As a traveler, I would like to see tours that are on special offer, to be able to find something that i might like with better pricing.</t>
-  </si>
-  <si>
     <t>As a tourist, I want to submit a review for a day tour I've been on, to let others know what my experience was and what to expect</t>
   </si>
   <si>
     <t>As a webmaster, I want to be able to verify reviews before they appear on the website, to make sure it isn't spam</t>
   </si>
   <si>
-    <t>As a website visitor, I want to see what tours are popular, so I don't have to spend time searching for good tours</t>
-  </si>
-  <si>
-    <t>As a website visitor, I want to see photos from day tours, so I know what to expect</t>
-  </si>
-  <si>
     <t>As a website visitor, I would like to see the duration of each tour so I can plan my day efficiently</t>
   </si>
   <si>
@@ -105,9 +93,6 @@
     <t>As a website visitor, I would like to be able to book the tours I am interested in, to secure my place in the trip.</t>
   </si>
   <si>
-    <t>As a website visitor, I would like to receive a confirmation email for the trips I have booked, to ensure my booking took place.</t>
-  </si>
-  <si>
     <t xml:space="preserve">As a tourist, I would like to receive a reminder email the day before, so I don´t forget my trip. </t>
   </si>
   <si>
@@ -124,6 +109,21 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>As a website visitor, I would like to receive a confirmation that I have booked, to ensure my booking took place.</t>
+  </si>
+  <si>
+    <t>As a tourist, I would like to be able to search for tours that do pickup, so I can plan my day efficiently.</t>
+  </si>
+  <si>
+    <t>As a marketing manager, I would like to be able to make a new trip, so it can be viewed on the site</t>
+  </si>
+  <si>
+    <t>As a traveler, I would like to search for tours depending on their difficulty, so I can filter out tours I am not fit enough for</t>
+  </si>
+  <si>
+    <t>As a marketing manager, I want to be able to accept all pending reviews, to save time when I know reviews are not spam</t>
   </si>
 </sst>
 </file>
@@ -202,17 +202,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -511,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>7</v>
@@ -565,7 +555,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -574,10 +564,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -588,7 +578,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -600,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -611,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -623,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -634,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -642,8 +632,11 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -654,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -662,8 +655,11 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -674,7 +670,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -682,8 +678,11 @@
       <c r="E9" s="3">
         <v>3</v>
       </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -694,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -703,7 +702,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -714,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -722,8 +721,11 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -734,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>60</v>
@@ -742,8 +744,11 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -754,7 +759,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>60</v>
@@ -762,8 +767,11 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -774,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>70</v>
@@ -782,8 +790,11 @@
       <c r="E14" s="3">
         <v>2</v>
       </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -794,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>80</v>
@@ -802,8 +813,11 @@
       <c r="E15" s="3">
         <v>2</v>
       </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -814,16 +828,19 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>90</v>
       </c>
       <c r="E16" s="3">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -834,16 +851,19 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -854,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>110</v>
@@ -863,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -874,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>110</v>
@@ -883,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -894,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>120</v>
@@ -906,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -917,16 +937,19 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>130</v>
       </c>
       <c r="E21" s="3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -937,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>140</v>
@@ -946,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -957,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>140</v>
@@ -966,12 +989,12 @@
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E25" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -979,10 +1002,10 @@
     <sortCondition ref="D4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G23">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Progress_Tracking_sheet_9d.xlsx
+++ b/Progress_Tracking_sheet_9d.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnar\Desktop\Skóldót\4. Misseri\Þróun hugbúnaðar\hop-9d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifu\Documents\Verkefni\Þróun Hugbúnaðar git\hbv401G-9d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7ECED-4539-4E10-B447-349609370570}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11806B13-4F63-4DA5-9F01-4983B1667290}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>User Story ID</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>As a marketing manager, I want to be able to accept all pending reviews, to save time when I know reviews are not spam</t>
+  </si>
+  <si>
+    <t>Est. Team effort sum</t>
+  </si>
+  <si>
+    <t>Actual Team effort sum</t>
+  </si>
+  <si>
+    <t>Est. Team effort left [Hours]</t>
+  </si>
+  <si>
+    <t>Remaining [Hours]</t>
+  </si>
+  <si>
+    <t>Estim. Team effort [Hours]</t>
+  </si>
+  <si>
+    <t>Actual [Hours</t>
+  </si>
+  <si>
+    <t>Actual Effort</t>
   </si>
 </sst>
 </file>
@@ -175,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -198,6 +219,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,21 +230,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -234,6 +259,1663 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimated Team Effort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$32:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$32:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB79-47DB-9A01-70EBF46801BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Team Effort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-EB79-47DB-9A01-70EBF46801BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EB79-47DB-9A01-70EBF46801BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-EB79-47DB-9A01-70EBF46801BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EB79-47DB-9A01-70EBF46801BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-EB79-47DB-9A01-70EBF46801BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-EB79-47DB-9A01-70EBF46801BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-EB79-47DB-9A01-70EBF46801BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EB79-47DB-9A01-70EBF46801BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$32:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$32:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EB79-47DB-9A01-70EBF46801BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>User Stories Not Completed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>14</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-EB79-47DB-9A01-70EBF46801BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402389632"/>
+        <c:axId val="402387992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402389632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> spent [Hours]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402387992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="402387992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> User Stories [High priority first]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0273973295354687E-2"/>
+              <c:y val="0.17768789180253824"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402389632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1236134</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C382F7C4-9047-4739-B835-9F9CEE08053B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,21 +2181,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="138.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.26953125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="11.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="135.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="7" width="11.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -524,7 +2206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -546,8 +2228,14 @@
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -564,13 +2252,21 @@
         <v>6</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <f>E4/2</f>
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f>F4/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -592,8 +2288,16 @@
       <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <f t="shared" ref="K5:K23" si="0">E5/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L23" si="1">F5/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -615,8 +2319,16 @@
       <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -638,8 +2350,16 @@
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -661,8 +2381,16 @@
       <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -684,8 +2412,16 @@
       <c r="G9" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -704,8 +2440,12 @@
       <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -727,8 +2467,16 @@
       <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -750,8 +2498,16 @@
       <c r="G12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -773,8 +2529,16 @@
       <c r="G13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -796,8 +2560,16 @@
       <c r="G14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -819,8 +2591,16 @@
       <c r="G15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -842,8 +2622,16 @@
       <c r="G16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -865,8 +2653,16 @@
       <c r="G17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -885,8 +2681,12 @@
       <c r="G18" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -905,8 +2705,12 @@
       <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -928,8 +2732,16 @@
       <c r="G20" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -951,8 +2763,16 @@
       <c r="G21" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -971,8 +2791,12 @@
       <c r="G22" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -991,10 +2815,317 @@
       <c r="G23" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E25" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E28" s="3">
+        <f>SUM(E4:E23)</f>
+        <v>66</v>
+      </c>
+      <c r="F28" s="3">
+        <f>SUM(F4:F23)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>20</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="3">
+        <f>K4</f>
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+      <c r="G33" s="3">
+        <f>G32+L4</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="3">
+        <f>E33+K5</f>
+        <v>4.5</v>
+      </c>
+      <c r="F34">
+        <v>18</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" ref="G34:G52" si="2">G33+L5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="3">
+        <f t="shared" ref="E35:E52" si="3">E34+K6</f>
+        <v>5.5</v>
+      </c>
+      <c r="F35">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>16</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="3">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="F38">
+        <v>14</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="3">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="3">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="3">
+        <f t="shared" si="3"/>
+        <v>20.5</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="3">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="3">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="3">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="3">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="3">
+        <f t="shared" si="3"/>
+        <v>26.5</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="3">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="3">
+        <f t="shared" si="3"/>
+        <v>29.5</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="3">
+        <f t="shared" si="3"/>
+        <v>31.5</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="3">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1002,14 +3133,15 @@
     <sortCondition ref="D4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"NO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>